--- a/data-raw/public-site/observe-station/xlsx/list-most-year-2019.xlsx
+++ b/data-raw/public-site/observe-station/xlsx/list-most-year-2019.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">广西环江农田生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院亚热带农业生态研究所</t>
+    <t xml:space="preserve">中国科学院亚热带农业生态研究所</t>
   </si>
   <si>
     <t xml:space="preserve">中科院</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">黑龙江三江沼泽湿地生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院东北地理与农业生态研究所</t>
+    <t xml:space="preserve">中国科学院东北地理与农业生态研究所</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">湖北神农架森林生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院植物研究所</t>
+    <t xml:space="preserve">中国科学院植物研究所</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">山东胶州湾海洋生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院海洋研究所</t>
+    <t xml:space="preserve">中国科学院海洋研究所</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">山东禹城农田生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院地理科学与资源研究所</t>
+    <t xml:space="preserve">中国科学院地理科学与资源研究所</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">河南封丘农田生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院南京土壤研究所</t>
+    <t xml:space="preserve">中国科学院南京土壤研究所</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">吉林长白山森林生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院沈阳应用生态研究所</t>
+    <t xml:space="preserve">中国科学院沈阳应用生态研究所</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">四川贡嘎山森林生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院水利部成都山地灾害与环境研究所</t>
+    <t xml:space="preserve">中国科学院水利部成都山地灾害与环境研究所</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">广东鼎湖山森林生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院华南植物园</t>
+    <t xml:space="preserve">中国科学院华南植物园</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">宁夏沙坡头沙漠生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院寒区旱区环境与工程研究所</t>
+    <t xml:space="preserve">中国科学院寒区旱区环境与工程研究所</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">江苏太湖湖泊生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院南京地理与湖泊研究所</t>
+    <t xml:space="preserve">中国科学院南京地理与湖泊研究所</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">中国科学技术大学、安徽省地震局</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院 地震局</t>
+    <t xml:space="preserve">中科院、地震局</t>
   </si>
   <si>
     <t xml:space="preserve">21</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">北京空间环境国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院地质与地球物理研究所</t>
+    <t xml:space="preserve">中国科学院地质与地球物理研究所</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">海南空间天气国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院空间科学与应用研究中心</t>
+    <t xml:space="preserve">中国科学院空间科学与应用研究中心</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">广东大亚湾海洋生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院南海海洋研究所</t>
+    <t xml:space="preserve">中国科学院南海海洋研究所</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">河北栾城农田生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院遗传与发育生物学研究所</t>
+    <t xml:space="preserve">中国科学院遗传与发育生物学研究所</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">陕西长武农田生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院水利部水土保持研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科院 教育部</t>
+    <t xml:space="preserve">中国科学院水利部水土保持研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中科院、教育部</t>
   </si>
   <si>
     <t xml:space="preserve">39</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">四川盐亭农田生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院 水利部</t>
+    <t xml:space="preserve">中科院、水利部</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">新疆策勒荒漠草地生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院新疆生态与地理研究所</t>
+    <t xml:space="preserve">中国科学院新疆生态与地理研究所</t>
   </si>
   <si>
     <t xml:space="preserve">42</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">云南哀牢山森林生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院西双版纳热带植物园</t>
+    <t xml:space="preserve">中国科学院西双版纳热带植物园</t>
   </si>
   <si>
     <t xml:space="preserve">43</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">东北林业大学</t>
   </si>
   <si>
-    <t xml:space="preserve">教育部 林草局</t>
+    <t xml:space="preserve">教育部、林草局</t>
   </si>
   <si>
     <t xml:space="preserve">46</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">中南林业科技大学</t>
   </si>
   <si>
-    <t xml:space="preserve">湖南省科技厅 林草局</t>
+    <t xml:space="preserve">湖南省科技厅、林草局</t>
   </si>
   <si>
     <t xml:space="preserve">48</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">青海海北高寒草地生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院西北高原生物研究所</t>
+    <t xml:space="preserve">中国科学院西北高原生物研究所</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">湖北东湖湖泊生态系统国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院水生生物研究所</t>
+    <t xml:space="preserve">中国科学院水生生物研究所</t>
   </si>
   <si>
     <t xml:space="preserve">53</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">湖北武汉引力与固体潮国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中国地震局地震研究所华中科技大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地震局 教育部</t>
+    <t xml:space="preserve">中国地震局地震研究所、华中科技大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地震局、教育部</t>
   </si>
   <si>
     <t xml:space="preserve">64</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">甘肃兰州地球物理国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中国地震局兰州地震研究所甘肃省地震局</t>
+    <t xml:space="preserve">中国地震局兰州地震研究所、甘肃省地震局</t>
   </si>
   <si>
     <t xml:space="preserve">65</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">山西太原大陆裂谷动力学国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中国地震局地质研究所山西省地震局</t>
+    <t xml:space="preserve">中国地震局地质研究所、山西省地震局</t>
   </si>
   <si>
     <t xml:space="preserve">66</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">湖北武汉大地测量国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院测量与地球物理研究所</t>
+    <t xml:space="preserve">中国科学院测量与地球物理研究所</t>
   </si>
   <si>
     <t xml:space="preserve">67</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">西藏羊八井宇宙线国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院高能物理研究所</t>
+    <t xml:space="preserve">中国科学院高能物理研究所</t>
   </si>
   <si>
     <t xml:space="preserve">91</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">西藏拉萨地球物理国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中国地震局地质研究所西藏自治区地震局</t>
+    <t xml:space="preserve">中国地震局地质研究所、西藏自治区地震局</t>
   </si>
   <si>
     <t xml:space="preserve">92</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">辽宁沈阳土壤大气环境材料腐蚀国家野外科学观测研究站</t>
   </si>
   <si>
-    <t xml:space="preserve">中科院金属研究所</t>
+    <t xml:space="preserve">中国科学院金属研究所</t>
   </si>
   <si>
     <t xml:space="preserve">95</t>

--- a/data-raw/public-site/observe-station/xlsx/list-most-year-2019.xlsx
+++ b/data-raw/public-site/observe-station/xlsx/list-most-year-2019.xlsx
@@ -1,885 +1,908 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\public-site\observe-station\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358DE46-FA1B-4AD6-85F9-E49FC3C9D823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-9892" yWindow="8258" windowWidth="24495" windowHeight="15674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
-  <si>
-    <t xml:space="preserve">officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古呼伦贝尔草原生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国农业科学院农业资源与农业区划研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">农业农村部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山西吉县森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京林业大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">教育部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广西环江农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院亚热带农业生态研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江三江沼泽湿地生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院东北地理与农业生态研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北神农架森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院植物研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古锡林郭勒草原生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东胶州湾海洋生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院海洋研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东禹城农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院地理科学与资源研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南封丘农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院南京土壤研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南祁阳农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉林长白山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院沈阳应用生态研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川贡嘎山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院水利部成都山地灾害与环境研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东鼎湖山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院华南植物园</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宁夏沙坡头沙漠生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院寒区旱区环境与工程研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏太湖湖泊生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院南京地理与湖泊研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海藏北高原冰冻圈特殊环境与灾害国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆天山冰川国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海瓦里关大气成分本底国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国气象科学研究院、青海省气象局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">气象局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京白家疃地球科学国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国地震局地球物理研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安徽蒙城地球物理国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学技术大学、安徽省地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科院、地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京空间环境国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院地质与地球物理研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南空间天气国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院空间科学与应用研究中心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南万宁大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国兵器工业第五九研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国资委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东青岛海水大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钢铁研究总院青岛海洋腐蚀研究所有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河北沽源草地生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国农业大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北梁子湖湖泊生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武汉大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江天童森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华东师范大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃临泽农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东大亚湾海洋生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院南海海洋研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东鹤山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河北栾城农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院遗传与发育生物学研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江海伦农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南会同森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西鹰潭农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁沈阳农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古鄂尔多斯草地生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古奈曼农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陕西长武农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院水利部水土保持研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科院、教育部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川盐亭农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科院、水利部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏拉萨农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆策勒荒漠草地生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院新疆生态与地理研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云南哀牢山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院西双版纳热带植物园</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陕西安塞农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南桃源农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江帽儿山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东北林业大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">教育部、林草局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西大岗山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国林业科学研究院森林生态环境与保护研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林草局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南会同杉木林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中南林业科技大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南省科技厅、林草局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南尖峰岭森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国林业科学研究院热带林业研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云南西双版纳森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海海北高寒草地生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院西北高原生物研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆阜康荒漠生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北东湖湖泊生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院水生生物研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南新乡农作物种质资源国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国农业科学院作物科学研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京昌平土壤质量国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京上甸子大气成分本底国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京市气象局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江龙凤山大气成分本底国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江省气象局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江临安大气成分本底国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江省气象局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南极中山雪冰和空间特殊环境与灾害国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国极地研究中心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然资源部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云南东川泥石流国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北长江三峡滑坡国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三峡大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北省科技厅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京房山人卫激光国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国测绘科学研究院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测绘局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉林长白山火山国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国地震局地质研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北武汉引力与固体潮国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国地震局地震研究所、华中科技大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地震局、教育部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃兰州地球物理国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国地震局兰州地震研究所、甘肃省地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山西太原大陆裂谷动力学国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国地震局地质研究所、山西省地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北武汉大地测量国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院测量与地球物理研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北武汉大气遥感国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北武汉大气淡水环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武汉材料保护研究所有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国航发北京航空材料研究院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南琼海大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国电器科学研究院股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东广州大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重庆江津大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江漠河大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江舟山海水环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钢铁研究总院舟山海洋腐蚀研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福建厦门海水环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国船舶重工集团公司第七二五研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南三亚海水环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江大庆土壤环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大庆油田工程有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏拉萨大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃敦煌大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云南西双版纳大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国营第二九八厂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南商丘农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国农业科学院农田灌溉研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏常熟农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆阿克苏农田生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古大兴安岭森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古农业大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古自治区科技厅
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="284">
+  <si>
+    <t>officer</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>内蒙古呼伦贝尔草原生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国农业科学院农业资源与农业区划研究所</t>
+  </si>
+  <si>
+    <t>农业农村部</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>山西吉县森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>北京林业大学</t>
+  </si>
+  <si>
+    <t>教育部</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>广西环江农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院亚热带农业生态研究所</t>
+  </si>
+  <si>
+    <t>中科院</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>黑龙江三江沼泽湿地生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院东北地理与农业生态研究所</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>湖北神农架森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院植物研究所</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>内蒙古锡林郭勒草原生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>山东胶州湾海洋生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院海洋研究所</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>山东禹城农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院地理科学与资源研究所</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>河南封丘农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院南京土壤研究所</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>湖南祁阳农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>吉林长白山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院沈阳应用生态研究所</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>四川贡嘎山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院水利部成都山地灾害与环境研究所</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>广东鼎湖山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院华南植物园</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>宁夏沙坡头沙漠生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院寒区旱区环境与工程研究所</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>江苏太湖湖泊生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院南京地理与湖泊研究所</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>青海藏北高原冰冻圈特殊环境与灾害国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>新疆天山冰川国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>青海瓦里关大气成分本底国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国气象科学研究院、青海省气象局</t>
+  </si>
+  <si>
+    <t>气象局</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>北京白家疃地球科学国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国地震局地球物理研究所</t>
+  </si>
+  <si>
+    <t>地震局</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>安徽蒙城地球物理国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学技术大学、安徽省地震局</t>
+  </si>
+  <si>
+    <t>中科院、地震局</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>北京空间环境国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院地质与地球物理研究所</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>海南空间天气国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院空间科学与应用研究中心</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>海南万宁大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国兵器工业第五九研究所</t>
+  </si>
+  <si>
+    <t>国资委</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>山东青岛海水大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>钢铁研究总院青岛海洋腐蚀研究所有限公司</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>河北沽源草地生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国农业大学</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>湖北梁子湖湖泊生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>浙江天童森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>甘肃临泽农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>广东大亚湾海洋生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院南海海洋研究所</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>广东鹤山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>河北栾城农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院遗传与发育生物学研究所</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>黑龙江海伦农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>湖南会同森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>江西鹰潭农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>辽宁沈阳农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>内蒙古鄂尔多斯草地生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>内蒙古奈曼农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>陕西长武农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院水利部水土保持研究所</t>
+  </si>
+  <si>
+    <t>中科院、教育部</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>四川盐亭农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中科院、水利部</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>西藏拉萨农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>新疆策勒荒漠草地生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院新疆生态与地理研究所</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>云南哀牢山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院西双版纳热带植物园</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>陕西安塞农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>湖南桃源农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>黑龙江帽儿山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>东北林业大学</t>
+  </si>
+  <si>
+    <t>教育部、林草局</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>江西大岗山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国林业科学研究院森林生态环境与保护研究所</t>
+  </si>
+  <si>
+    <t>林草局</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>湖南会同杉木林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中南林业科技大学</t>
+  </si>
+  <si>
+    <t>湖南省科技厅、林草局</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>海南尖峰岭森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国林业科学研究院热带林业研究所</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>云南西双版纳森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>青海海北高寒草地生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院西北高原生物研究所</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>新疆阜康荒漠生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>湖北东湖湖泊生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院水生生物研究所</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>河南新乡农作物种质资源国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国农业科学院作物科学研究所</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>北京昌平土壤质量国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>北京上甸子大气成分本底国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>北京市气象局</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>黑龙江龙凤山大气成分本底国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>黑龙江省气象局</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>浙江临安大气成分本底国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>浙江省气象局</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>南极中山雪冰和空间特殊环境与灾害国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国极地研究中心</t>
+  </si>
+  <si>
+    <t>自然资源部</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>云南东川泥石流国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>湖北长江三峡滑坡国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>三峡大学</t>
+  </si>
+  <si>
+    <t>湖北省科技厅</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>北京房山人卫激光国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国测绘科学研究院</t>
+  </si>
+  <si>
+    <t>测绘局</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>吉林长白山火山国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国地震局地质研究所</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>湖北武汉引力与固体潮国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国地震局地震研究所、华中科技大学</t>
+  </si>
+  <si>
+    <t>地震局、教育部</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>甘肃兰州地球物理国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国地震局兰州地震研究所、甘肃省地震局</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>山西太原大陆裂谷动力学国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国地震局地质研究所、山西省地震局</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>湖北武汉大地测量国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院测量与地球物理研究所</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>湖北武汉大气遥感国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>湖北武汉大气淡水环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>武汉材料保护研究所有限公司</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>北京大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国航发北京航空材料研究院</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>海南琼海大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国电器科学研究院股份有限公司</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>广东广州大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>重庆江津大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>黑龙江漠河大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>浙江舟山海水环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>钢铁研究总院舟山海洋腐蚀研究所</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>福建厦门海水环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国船舶重工集团公司第七二五研究所</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>海南三亚海水环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>黑龙江大庆土壤环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>大庆油田工程有限公司</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>西藏拉萨大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>甘肃敦煌大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>云南西双版纳大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>国营第二九八厂</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>河南商丘农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国农业科学院农田灌溉研究所</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>江苏常熟农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>新疆阿克苏农田生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>内蒙古大兴安岭森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>内蒙古农业大学</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>西藏林芝高山森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>西藏农牧学院</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>甘肃民勤荒漠草地生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>甘肃省治沙研究所</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>陕西秦岭森林生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>西北农林科技大学</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>海南三亚海洋生态系统国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>南极长城极地生态国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>西藏羊八井宇宙线国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院高能物理研究所</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>西藏拉萨地球物理国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国地震局地质研究所、西藏自治区地震局</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>上海佘山地球物理国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>上海市地震局</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>四川成都土壤环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>电信科学技术第五研究所有限公司</t>
+  </si>
+  <si>
+    <t>工业和信息化部</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>辽宁沈阳土壤大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>中国科学院金属研究所</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>新疆尉犁大气环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>青海格尔木盐湖水环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>新疆库尔勒土壤环境材料腐蚀国家野外科学观测研究站</t>
+  </si>
+  <si>
+    <t>甘肃省科技厅
 林草局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏林芝高山森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏农牧学院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏自治区科技厅
-林草局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃民勤荒漠草地生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃省治沙研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃省科技厅
-林草局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陕西秦岭森林生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西北农林科技大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南三亚海洋生态系统国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南极长城极地生态国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏羊八井宇宙线国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院高能物理研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏拉萨地球物理国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国地震局地质研究所、西藏自治区地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海佘山地球物理国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海市地震局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川成都土壤环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电信科学技术第五研究所有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工业和信息化部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁沈阳土壤大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国科学院金属研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆尉犁大气环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海格尔木盐湖水环境材料腐蚀国家野外科学观测研究站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆库尔勒土壤环境材料腐蚀国家野外科学观测研究站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古自治区科技厅、林草局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏自治区科技厅、林草局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -903,13 +926,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1191,14 +1227,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,11 +1260,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2019</v>
       </c>
       <c r="C2" t="s">
@@ -1238,11 +1280,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
@@ -1258,11 +1300,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
@@ -1278,11 +1320,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
@@ -1298,11 +1340,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2019</v>
       </c>
       <c r="C6" t="s">
@@ -1318,11 +1360,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
@@ -1338,11 +1380,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2019</v>
       </c>
       <c r="C8" t="s">
@@ -1358,11 +1400,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
@@ -1378,11 +1420,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2019</v>
       </c>
       <c r="C10" t="s">
@@ -1398,11 +1440,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2019</v>
       </c>
       <c r="C11" t="s">
@@ -1418,11 +1460,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2019</v>
       </c>
       <c r="C12" t="s">
@@ -1438,11 +1480,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2019</v>
       </c>
       <c r="C13" t="s">
@@ -1458,11 +1500,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2019</v>
       </c>
       <c r="C14" t="s">
@@ -1478,11 +1520,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2019</v>
       </c>
       <c r="C15" t="s">
@@ -1498,11 +1540,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2019</v>
       </c>
       <c r="C16" t="s">
@@ -1518,11 +1560,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2019</v>
       </c>
       <c r="C17" t="s">
@@ -1538,11 +1580,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2019</v>
       </c>
       <c r="C18" t="s">
@@ -1558,11 +1600,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2019</v>
       </c>
       <c r="C19" t="s">
@@ -1578,11 +1620,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2019</v>
       </c>
       <c r="C20" t="s">
@@ -1598,11 +1640,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2019</v>
       </c>
       <c r="C21" t="s">
@@ -1618,11 +1660,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2019</v>
       </c>
       <c r="C22" t="s">
@@ -1638,11 +1680,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2019</v>
       </c>
       <c r="C23" t="s">
@@ -1658,11 +1700,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2019</v>
       </c>
       <c r="C24" t="s">
@@ -1678,11 +1720,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2019</v>
       </c>
       <c r="C25" t="s">
@@ -1698,11 +1740,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2019</v>
       </c>
       <c r="C26" t="s">
@@ -1718,11 +1760,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27" t="s">
@@ -1738,11 +1780,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28" t="s">
@@ -1758,11 +1800,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29" t="s">
@@ -1778,11 +1820,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2019</v>
       </c>
       <c r="C30" t="s">
@@ -1798,11 +1840,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2019</v>
       </c>
       <c r="C31" t="s">
@@ -1818,11 +1860,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2019</v>
       </c>
       <c r="C32" t="s">
@@ -1838,11 +1880,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2019</v>
       </c>
       <c r="C33" t="s">
@@ -1858,11 +1900,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2019</v>
       </c>
       <c r="C34" t="s">
@@ -1878,11 +1920,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2019</v>
       </c>
       <c r="C35" t="s">
@@ -1898,11 +1940,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2019</v>
       </c>
       <c r="C36" t="s">
@@ -1918,11 +1960,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2019</v>
       </c>
       <c r="C37" t="s">
@@ -1938,11 +1980,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2019</v>
       </c>
       <c r="C38" t="s">
@@ -1958,11 +2000,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2019</v>
       </c>
       <c r="C39" t="s">
@@ -1978,11 +2020,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2019</v>
       </c>
       <c r="C40" t="s">
@@ -1998,11 +2040,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2019</v>
       </c>
       <c r="C41" t="s">
@@ -2018,11 +2060,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2019</v>
       </c>
       <c r="C42" t="s">
@@ -2038,11 +2080,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2019</v>
       </c>
       <c r="C43" t="s">
@@ -2058,11 +2100,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2019</v>
       </c>
       <c r="C44" t="s">
@@ -2078,11 +2120,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2019</v>
       </c>
       <c r="C45" t="s">
@@ -2098,11 +2140,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2019</v>
       </c>
       <c r="C46" t="s">
@@ -2118,11 +2160,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2019</v>
       </c>
       <c r="C47" t="s">
@@ -2138,11 +2180,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2019</v>
       </c>
       <c r="C48" t="s">
@@ -2158,11 +2200,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2019</v>
       </c>
       <c r="C49" t="s">
@@ -2178,11 +2220,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2019</v>
       </c>
       <c r="C50" t="s">
@@ -2198,11 +2240,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2019</v>
       </c>
       <c r="C51" t="s">
@@ -2218,11 +2260,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>2019</v>
       </c>
       <c r="C52" t="s">
@@ -2238,11 +2280,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>2019</v>
       </c>
       <c r="C53" t="s">
@@ -2258,11 +2300,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>2019</v>
       </c>
       <c r="C54" t="s">
@@ -2278,11 +2320,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2019</v>
       </c>
       <c r="C55" t="s">
@@ -2298,11 +2340,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>2019</v>
       </c>
       <c r="C56" t="s">
@@ -2318,11 +2360,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>2019</v>
       </c>
       <c r="C57" t="s">
@@ -2338,11 +2380,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>2019</v>
       </c>
       <c r="C58" t="s">
@@ -2358,11 +2400,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>2019</v>
       </c>
       <c r="C59" t="s">
@@ -2378,11 +2420,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>2019</v>
       </c>
       <c r="C60" t="s">
@@ -2398,11 +2440,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>2019</v>
       </c>
       <c r="C61" t="s">
@@ -2418,11 +2460,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2019</v>
       </c>
       <c r="C62" t="s">
@@ -2438,11 +2480,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>2019</v>
       </c>
       <c r="C63" t="s">
@@ -2458,11 +2500,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>2019</v>
       </c>
       <c r="C64" t="s">
@@ -2478,11 +2520,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2019</v>
       </c>
       <c r="C65" t="s">
@@ -2498,11 +2540,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2019</v>
       </c>
       <c r="C66" t="s">
@@ -2518,11 +2560,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>2019</v>
       </c>
       <c r="C67" t="s">
@@ -2538,11 +2580,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>2019</v>
       </c>
       <c r="C68" t="s">
@@ -2558,11 +2600,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
@@ -2578,11 +2620,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>2019</v>
       </c>
       <c r="C70" t="s">
@@ -2598,11 +2640,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>2019</v>
       </c>
       <c r="C71" t="s">
@@ -2618,11 +2660,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>2019</v>
       </c>
       <c r="C72" t="s">
@@ -2638,11 +2680,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>2019</v>
       </c>
       <c r="C73" t="s">
@@ -2658,11 +2700,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2019</v>
       </c>
       <c r="C74" t="s">
@@ -2678,11 +2720,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2019</v>
       </c>
       <c r="C75" t="s">
@@ -2698,11 +2740,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>2019</v>
       </c>
       <c r="C76" t="s">
@@ -2718,11 +2760,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>2019</v>
       </c>
       <c r="C77" t="s">
@@ -2738,11 +2780,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2019</v>
       </c>
       <c r="C78" t="s">
@@ -2758,11 +2800,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2019</v>
       </c>
       <c r="C79" t="s">
@@ -2778,11 +2820,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2019</v>
       </c>
       <c r="C80" t="s">
@@ -2798,11 +2840,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2019</v>
       </c>
       <c r="C81" t="s">
@@ -2818,11 +2860,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2019</v>
       </c>
       <c r="C82" t="s">
@@ -2838,11 +2880,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2019</v>
       </c>
       <c r="C83" t="s">
@@ -2858,11 +2900,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2019</v>
       </c>
       <c r="C84" t="s">
@@ -2878,11 +2920,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2019</v>
       </c>
       <c r="C85" t="s">
@@ -2894,82 +2936,82 @@
       <c r="E85" t="s">
         <v>245</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>2019</v>
+      </c>
+      <c r="C86" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>247</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>248</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>2019</v>
+      </c>
+      <c r="C87" t="s">
         <v>249</v>
       </c>
-      <c r="F86" t="s">
+      <c r="D87" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>251</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>2019</v>
+      </c>
+      <c r="C88" t="s">
         <v>252</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D88" t="s">
         <v>253</v>
       </c>
-      <c r="F87" t="s">
+      <c r="E88" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C88" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" t="s">
-        <v>256</v>
-      </c>
-      <c r="E88" t="s">
-        <v>257</v>
       </c>
       <c r="F88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2019</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
         <v>95</v>
@@ -2978,18 +3020,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>2019</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E90" t="s">
         <v>173</v>
@@ -2998,118 +3040,118 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2019</v>
       </c>
       <c r="C91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>2019</v>
+      </c>
+      <c r="C92" t="s">
         <v>262</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>263</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>264</v>
-      </c>
-      <c r="F91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C92" t="s">
-        <v>265</v>
-      </c>
-      <c r="D92" t="s">
-        <v>266</v>
-      </c>
-      <c r="E92" t="s">
-        <v>267</v>
       </c>
       <c r="F92" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>2019</v>
       </c>
       <c r="C93" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E93" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F93" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2019</v>
       </c>
       <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" t="s">
         <v>271</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>2019</v>
+      </c>
+      <c r="C95" t="s">
         <v>272</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D95" t="s">
         <v>273</v>
       </c>
-      <c r="F94" t="s">
+      <c r="E95" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>2019</v>
+      </c>
+      <c r="C96" t="s">
         <v>275</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>276</v>
-      </c>
-      <c r="E95" t="s">
-        <v>277</v>
-      </c>
-      <c r="F95" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C96" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" t="s">
-        <v>279</v>
       </c>
       <c r="E96" t="s">
         <v>205</v>
@@ -3118,18 +3160,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>2019</v>
       </c>
       <c r="C97" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E97" t="s">
         <v>81</v>
@@ -3138,18 +3180,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2019</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
         <v>228</v>
@@ -3159,7 +3201,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>